--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N2">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q2">
-        <v>1.710078512533333</v>
+        <v>2.514150099559334</v>
       </c>
       <c r="R2">
-        <v>15.3907066128</v>
+        <v>22.627350896034</v>
       </c>
       <c r="S2">
-        <v>0.08503043752031643</v>
+        <v>0.1051958493834488</v>
       </c>
       <c r="T2">
-        <v>0.08503043752031643</v>
+        <v>0.1051958493834488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P3">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q3">
-        <v>3.539692730112</v>
+        <v>4.504588893728</v>
       </c>
       <c r="R3">
-        <v>31.857234571008</v>
+        <v>40.541300043552</v>
       </c>
       <c r="S3">
-        <v>0.1760045631372962</v>
+        <v>0.1884788242682978</v>
       </c>
       <c r="T3">
-        <v>0.1760045631372963</v>
+        <v>0.1884788242682978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N4">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O4">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P4">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q4">
-        <v>0.333188428816</v>
+        <v>0.6702998369344444</v>
       </c>
       <c r="R4">
-        <v>2.998695859344</v>
+        <v>6.03269853241</v>
       </c>
       <c r="S4">
-        <v>0.01656716792316227</v>
+        <v>0.02804636075637059</v>
       </c>
       <c r="T4">
-        <v>0.01656716792316227</v>
+        <v>0.02804636075637059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N5">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q5">
-        <v>0.759323466352</v>
+        <v>1.313848783856889</v>
       </c>
       <c r="R5">
-        <v>6.833911197168001</v>
+        <v>11.824639054712</v>
       </c>
       <c r="S5">
-        <v>0.03775593114008869</v>
+        <v>0.05497342374405634</v>
       </c>
       <c r="T5">
-        <v>0.0377559311400887</v>
+        <v>0.05497342374405634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N6">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O6">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P6">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q6">
-        <v>0.4666092507893334</v>
+        <v>0.7733128416973333</v>
       </c>
       <c r="R6">
-        <v>4.199483257104</v>
+        <v>6.959815575276</v>
       </c>
       <c r="S6">
-        <v>0.02320126734232075</v>
+        <v>0.03235658095184449</v>
       </c>
       <c r="T6">
-        <v>0.02320126734232075</v>
+        <v>0.03235658095184449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N7">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q7">
-        <v>1.0391539536</v>
+        <v>1.200509078832</v>
       </c>
       <c r="R7">
-        <v>9.352385582399998</v>
+        <v>10.804581709488</v>
       </c>
       <c r="S7">
-        <v>0.05166997578063087</v>
+        <v>0.05023111876351738</v>
       </c>
       <c r="T7">
-        <v>0.05166997578063087</v>
+        <v>0.05023111876351737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P8">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q8">
         <v>2.150945508096</v>
@@ -948,10 +948,10 @@
         <v>19.358509572864</v>
       </c>
       <c r="S8">
-        <v>0.1069517196405315</v>
+        <v>0.08999881898114676</v>
       </c>
       <c r="T8">
-        <v>0.1069517196405315</v>
+        <v>0.08999881898114676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N9">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O9">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P9">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q9">
-        <v>0.202466770128</v>
+        <v>0.32006881368</v>
       </c>
       <c r="R9">
-        <v>1.822200931152</v>
+        <v>2.88061932312</v>
       </c>
       <c r="S9">
-        <v>0.01006727932146542</v>
+        <v>0.01339216410433168</v>
       </c>
       <c r="T9">
-        <v>0.01006727932146542</v>
+        <v>0.01339216410433167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N10">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q10">
-        <v>0.461413892016</v>
+        <v>0.6273640517760001</v>
       </c>
       <c r="R10">
-        <v>4.152725028144</v>
+        <v>5.646276465984</v>
       </c>
       <c r="S10">
-        <v>0.02294293789935434</v>
+        <v>0.02624986245283673</v>
       </c>
       <c r="T10">
-        <v>0.02294293789935435</v>
+        <v>0.02624986245283673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N11">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O11">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P11">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q11">
-        <v>0.283541863248</v>
+        <v>0.369257622048</v>
       </c>
       <c r="R11">
-        <v>2.551876769232</v>
+        <v>3.323318598432</v>
       </c>
       <c r="S11">
-        <v>0.01409858583135271</v>
+        <v>0.01545029837298111</v>
       </c>
       <c r="T11">
-        <v>0.01409858583135271</v>
+        <v>0.01545029837298111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N12">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q12">
-        <v>0.5412809786444445</v>
+        <v>1.674640664362</v>
       </c>
       <c r="R12">
-        <v>4.8715288078</v>
+        <v>15.071765979258</v>
       </c>
       <c r="S12">
-        <v>0.02691417855860874</v>
+        <v>0.07006950266434007</v>
       </c>
       <c r="T12">
-        <v>0.02691417855860874</v>
+        <v>0.07006950266434006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P13">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q13">
-        <v>1.120397882912</v>
+        <v>3.000444459936</v>
       </c>
       <c r="R13">
-        <v>10.083580946208</v>
+        <v>27.004000139424</v>
       </c>
       <c r="S13">
-        <v>0.05570967735259853</v>
+        <v>0.1255431422118168</v>
       </c>
       <c r="T13">
-        <v>0.05570967735259853</v>
+        <v>0.1255431422118168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N14">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O14">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P14">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q14">
-        <v>0.1054621512993333</v>
+        <v>0.4464774654633332</v>
       </c>
       <c r="R14">
-        <v>0.9491593616939999</v>
+        <v>4.018297189169999</v>
       </c>
       <c r="S14">
-        <v>0.005243907107827205</v>
+        <v>0.01868129361815629</v>
       </c>
       <c r="T14">
-        <v>0.005243907107827205</v>
+        <v>0.01868129361815628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N15">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q15">
-        <v>0.2403441397353333</v>
+        <v>0.8751365324826667</v>
       </c>
       <c r="R15">
-        <v>2.163097257618</v>
+        <v>7.876228792344</v>
       </c>
       <c r="S15">
-        <v>0.01195066028100924</v>
+        <v>0.03661703844855412</v>
       </c>
       <c r="T15">
-        <v>0.01195066028100924</v>
+        <v>0.0366170384485541</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N16">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O16">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P16">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q16">
-        <v>0.1476930503837778</v>
+        <v>0.515093005468</v>
       </c>
       <c r="R16">
-        <v>1.329237453454</v>
+        <v>4.635837049211999</v>
       </c>
       <c r="S16">
-        <v>0.007343759131993638</v>
+        <v>0.02155227177214959</v>
       </c>
       <c r="T16">
-        <v>0.007343759131993638</v>
+        <v>0.02155227177214958</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N17">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q17">
-        <v>1.760531302166667</v>
+        <v>0.1040912846836667</v>
       </c>
       <c r="R17">
-        <v>15.8447817195</v>
+        <v>0.9368215621530002</v>
       </c>
       <c r="S17">
-        <v>0.0875391075873343</v>
+        <v>0.004355337061073618</v>
       </c>
       <c r="T17">
-        <v>0.08753910758733428</v>
+        <v>0.004355337061073617</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P18">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q18">
-        <v>3.64412499528</v>
+        <v>0.186499781776</v>
       </c>
       <c r="R18">
-        <v>32.79712495752</v>
+        <v>1.678498035984</v>
       </c>
       <c r="S18">
-        <v>0.181197261094373</v>
+        <v>0.007803433437483657</v>
       </c>
       <c r="T18">
-        <v>0.181197261094373</v>
+        <v>0.007803433437483656</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N19">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O19">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P19">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q19">
-        <v>0.343018553915</v>
+        <v>0.02775187176055556</v>
       </c>
       <c r="R19">
-        <v>3.087166985235</v>
+        <v>0.249766845845</v>
       </c>
       <c r="S19">
-        <v>0.0170559524040626</v>
+        <v>0.001161180361643436</v>
       </c>
       <c r="T19">
-        <v>0.0170559524040626</v>
+        <v>0.001161180361643436</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N20">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q20">
-        <v>0.781725939005</v>
+        <v>0.05439619846711112</v>
       </c>
       <c r="R20">
-        <v>7.035533451045</v>
+        <v>0.4895657862040001</v>
       </c>
       <c r="S20">
-        <v>0.03886985195557194</v>
+        <v>0.002276019360173196</v>
       </c>
       <c r="T20">
-        <v>0.03886985195557194</v>
+        <v>0.002276019360173195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.547574</v>
+      </c>
+      <c r="N21">
+        <v>1.642722</v>
+      </c>
+      <c r="O21">
+        <v>0.07910157378579964</v>
+      </c>
+      <c r="P21">
+        <v>0.07910157378579964</v>
+      </c>
+      <c r="Q21">
+        <v>0.03201683430466667</v>
+      </c>
+      <c r="R21">
+        <v>0.288151508742</v>
+      </c>
+      <c r="S21">
+        <v>0.001339632856383111</v>
+      </c>
+      <c r="T21">
+        <v>0.00133963285638311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.780241</v>
+      </c>
+      <c r="N22">
+        <v>5.340723000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.2571704734300857</v>
+      </c>
+      <c r="P22">
+        <v>0.2571704734300857</v>
+      </c>
+      <c r="Q22">
+        <v>0.6529081340593335</v>
+      </c>
+      <c r="R22">
+        <v>5.876173206534</v>
+      </c>
+      <c r="S22">
+        <v>0.02731866555770582</v>
+      </c>
+      <c r="T22">
+        <v>0.02731866555770582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.189648</v>
+      </c>
+      <c r="N23">
+        <v>9.568944</v>
+      </c>
+      <c r="O23">
+        <v>0.4607709215973151</v>
+      </c>
+      <c r="P23">
+        <v>0.4607709215973152</v>
+      </c>
+      <c r="Q23">
+        <v>1.169811909728</v>
+      </c>
+      <c r="R23">
+        <v>10.528307187552</v>
+      </c>
+      <c r="S23">
+        <v>0.04894670269857017</v>
+      </c>
+      <c r="T23">
+        <v>0.04894670269857016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.4746316666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.423895</v>
+      </c>
+      <c r="O24">
+        <v>0.06856445302718973</v>
+      </c>
+      <c r="P24">
+        <v>0.06856445302718973</v>
+      </c>
+      <c r="Q24">
+        <v>0.1740724294344444</v>
+      </c>
+      <c r="R24">
+        <v>1.56665186491</v>
+      </c>
+      <c r="S24">
+        <v>0.007283454186687744</v>
+      </c>
+      <c r="T24">
+        <v>0.007283454186687742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4204656666666667</v>
-      </c>
-      <c r="N21">
-        <v>1.261397</v>
-      </c>
-      <c r="O21">
-        <v>0.0685293912957687</v>
-      </c>
-      <c r="P21">
-        <v>0.06852939129576871</v>
-      </c>
-      <c r="Q21">
-        <v>0.4803757171816667</v>
-      </c>
-      <c r="R21">
-        <v>4.323381454635</v>
-      </c>
-      <c r="S21">
-        <v>0.02388577899010161</v>
-      </c>
-      <c r="T21">
-        <v>0.02388577899010161</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9303213333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.790964</v>
+      </c>
+      <c r="O25">
+        <v>0.1343925781596098</v>
+      </c>
+      <c r="P25">
+        <v>0.1343925781596098</v>
+      </c>
+      <c r="Q25">
+        <v>0.341197829856889</v>
+      </c>
+      <c r="R25">
+        <v>3.070780468712</v>
+      </c>
+      <c r="S25">
+        <v>0.01427623415398943</v>
+      </c>
+      <c r="T25">
+        <v>0.01427623415398943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.547574</v>
+      </c>
+      <c r="N26">
+        <v>1.642722</v>
+      </c>
+      <c r="O26">
+        <v>0.07910157378579964</v>
+      </c>
+      <c r="P26">
+        <v>0.07910157378579964</v>
+      </c>
+      <c r="Q26">
+        <v>0.2008242246973333</v>
+      </c>
+      <c r="R26">
+        <v>1.807418022276</v>
+      </c>
+      <c r="S26">
+        <v>0.008402789832441342</v>
+      </c>
+      <c r="T26">
+        <v>0.008402789832441341</v>
       </c>
     </row>
   </sheetData>
